--- a/Scouting Key.xlsx
+++ b/Scouting Key.xlsx
@@ -37,7 +37,7 @@
     <t xml:space="preserve">Match</t>
   </si>
   <si>
-    <t xml:space="preserve">Name</t>
+    <t xml:space="preserve">UserName</t>
   </si>
   <si>
     <t xml:space="preserve">Alliance</t>
@@ -191,13 +191,15 @@
   </sheetPr>
   <dimension ref="A1:S2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
+      <selection pane="bottomLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.66326530612245"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="10.3469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Scouting Key.xlsx
+++ b/Scouting Key.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="26">
   <si>
     <t>Key</t>
   </si>
@@ -97,6 +97,12 @@
   </si>
   <si>
     <t>Climbed</t>
+  </si>
+  <si>
+    <t>Alliance kPa</t>
+  </si>
+  <si>
+    <t>Note: Doubles are output as int</t>
   </si>
 </sst>
 </file>
@@ -414,12 +420,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S2"/>
+  <dimension ref="A1:T4"/>
   <sheetViews>
-    <sheetView windowProtection="1" tabSelected="1" topLeftCell="L1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView windowProtection="1" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="G1" sqref="G1"/>
-      <selection pane="bottomLeft" activeCell="R2" sqref="R2"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -427,7 +433,7 @@
     <col min="1" max="1025" width="10.33203125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -485,8 +491,11 @@
       <c r="S1" t="s">
         <v>17</v>
       </c>
+      <c r="T1" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -543,6 +552,14 @@
       </c>
       <c r="S2" t="s">
         <v>21</v>
+      </c>
+      <c r="T2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
